--- a/biology/Médecine/Bernard_This/Bernard_This.xlsx
+++ b/biology/Médecine/Bernard_This/Bernard_This.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard This est un psychiatre et psychanalyste français, né le 14 avril 1928 à Longuyon (Meurthe-et-Moselle) et mort le 20 septembre 2016 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard This est un psychiatre et psychanalyste français, né le 14 avril 1928 à Longuyon (Meurthe-et-Moselle) et mort le 20 septembre 2016 à Paris.
 </t>
         </is>
       </c>
@@ -511,24 +523,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant ses études de médecine à l'université de Nancy, à partir de 1950, ses intérêts s’orientent déjà vers les sciences de l'humain : la psychoprophylaxie obstétricale, la maternité, la petite enfance, la psychanalyse, l’étymologie et la mythologie.       
 À partir de 1953, il exerce à la Maternité de l’Hôpital Foch (Suresnes, Hauts-de-Seine), dans le service du professeur Merger. Il y prépare des groupes de femmes enceintes à l’accouchement sans douleur. Il y reste 6 ans. Son insistance pour obtenir que les pères puissent assister à la naissance de leur enfant et la publication de son premier livre, La Psychanalyse, conduisent à la fin de son contrat avec cet hôpital.
 Cette même année, il s’engage dans la psychanalyse avec le docteur André Berge, et il commence la formation de psychanalyste à la Société de psychanalyse de Paris (SPP) ; il quitte cet Institut pour poursuivre son travail clinique et de recherche avec Françoise Dolto dont il suit la consultation à l’Hôpital Trousseau, et Jaques Lacan dont il suit le séminaire jusqu’en 1980.
 En février 1954, il soutient sa thèse de médecine Sur une nouvelle orientation médicale : L’accouchement psychoprophylactique. Le président du jury est  le professeur Kissel, professeur de clinique neurologique. 
 1960 : Membre de la Société Française de Psychanalyse (S.F.P).
-Cette même année, il est cofondateur du Centre Étienne Marcel[2], avec le docteur Charles Brisset, Thérèse Tremblais et Madeleine Casanova.
+Cette même année, il est cofondateur du Centre Étienne Marcel, avec le docteur Charles Brisset, Thérèse Tremblais et Madeleine Casanova.
 1961 : Le Centre Étienne Marcel s’installe au 37 rue Étienne Marcel Paris 75001. Il en est le directeur de la Cure ambulatoire. L’accueil concerne les enfants de 6 à 20 ans, il y introduit une prise en charge des enfants dès la naissance, et même avant.
 1964 : membre de l’École Freudienne de Paris, où Jacques Lacan le nomme Analyste de l’Ecole (A.E.).
-1969 : il participe, avec Judith Dupont et Madeleine Casanova, à la création de la revue psychanalytique Le Coq-Héron (éd. Jacques Dupont-Imprimeur Paris XX°, puis : éd. érès)[3].
-1970 : cofondateur avec Françoise Dolto, Pierre Benoit, Colette Langignon[4], Marie-Noëlle Rebois, Marie-Hélène Malandrin de la première Maison verte à Paris. Lieu d’accueil pour les très jeunes enfants accompagnés de leur famille[5]. qui y rencontrent, en journée, des accompagnants, des psychanalystes et des psychologues. Ce concept s'est ensuite développé dans plusieurs autres villes en France et à l'étranger, avec la création de structures aux noms parfois distincts[6], tels La Maisonnée à Strasbourg[7] ou les Maisons ouvertes à Bruxelles[8].
+1969 : il participe, avec Judith Dupont et Madeleine Casanova, à la création de la revue psychanalytique Le Coq-Héron (éd. Jacques Dupont-Imprimeur Paris XX°, puis : éd. érès).
+1970 : cofondateur avec Françoise Dolto, Pierre Benoit, Colette Langignon, Marie-Noëlle Rebois, Marie-Hélène Malandrin de la première Maison verte à Paris. Lieu d’accueil pour les très jeunes enfants accompagnés de leur famille. qui y rencontrent, en journée, des accompagnants, des psychanalystes et des psychologues. Ce concept s'est ensuite développé dans plusieurs autres villes en France et à l'étranger, avec la création de structures aux noms parfois distincts, tels La Maisonnée à Strasbourg ou les Maisons ouvertes à Bruxelles.
 1974 : il est nommé Psychiatre sur titres et travaux.
-1974-1975 : Fondation, avec Étienne Herbinet et Danielle Rapoport, du Groupe de recherches et d'études du nouveau-né (GRENN)[9].  La publication des travaux des « Journées scientifiques » et des Réunions de travail donnent lieu à l’édition de 8 numéros : « Les cahiers du nouveau-né » : éd. : Stock. ; éd. érès. Le GRENN explore  de nombreuses méthodes d'accouchement, notamment la sophrologie, l'accouchement en piscine ou, surtout, l'haptonomie, qu'il a contribué à promouvoir en France dès 1980[10].
+1974-1975 : Fondation, avec Étienne Herbinet et Danielle Rapoport, du Groupe de recherches et d'études du nouveau-né (GRENN).  La publication des travaux des « Journées scientifiques » et des Réunions de travail donnent lieu à l’édition de 8 numéros : « Les cahiers du nouveau-né » : éd. : Stock. ; éd. érès. Le GRENN explore  de nombreuses méthodes d'accouchement, notamment la sophrologie, l'accouchement en piscine ou, surtout, l'haptonomie, qu'il a contribué à promouvoir en France dès 1980.
 1980 : Haptonomie : création d’un groupe de travail en France, sous la direction de Frans Veldman.      
 1981 : membre de l’École de la cause freudienne (A.M.E).
-Vie privée
-Il était marié à Claude This, née Jacquemin. Ensemble, ils ont eu quatre enfants : Laurent (1954, +), Hervé (1955-), Bruno (1957-), Isabelle (1963-). 
 </t>
         </is>
       </c>
@@ -554,10 +566,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était marié à Claude This, née Jacquemin. Ensemble, ils ont eu quatre enfants : Laurent (1954, +), Hervé (1955-), Bruno (1957-), Isabelle (1963-). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernard_This</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_This</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1. Livres en nom propre 
 1960 : La Psychanalyse, Science de l’homme en devenir.  Casterman, Paris.
